--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei 0920\OneDrive\Desktop\VVSS\Proiect\VVSS\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D50D76-53F6-4E24-8E6F-8FBA885CC4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId5"/>
-    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId6"/>
-    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId7"/>
-    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId8"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId2"/>
+    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId3"/>
+    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId4"/>
+    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -159,12 +168,6 @@
   </si>
   <si>
     <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>ClassDiagramPizzaShop_v1.0.png</t>
   </si>
   <si>
     <t>Coding Phase Defects</t>
@@ -305,7 +308,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -421,7 +424,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -676,7 +679,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -800,7 +803,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1088,7 +1091,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1174,7 +1177,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1217,16 +1220,50 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Lab01_Architectural Design Phase Defects Checklist.pdf</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Organizarea programului nu este clara. Spre exemplu in OrderGUI apare o referinta catre PizzaService. Acest lucru nu ar trebui sa se intample deoarece ar trebui sa existe o referinta catre OrderGUIController</t>
+  </si>
+  <si>
+    <t>Rolurile pentru agregare si asociere nu sunt complet definite. Lipsesc anumite elemete precum ordinul de multiplicitate/denumirea relaitiei. Ex: Relatia intre clasele de MenuRepository si MenuDataModel. 
+Alta probelema, in unele cazuri sunt trasate prea multe sageti intre anumite tabele. Ex: Intre clases Main si PaymentRepository nu ar trebui sa avem si realtie de create si relatie de asociere</t>
+  </si>
+  <si>
+    <t>Echipa Duracell</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>ClassDiagramPizzaShop_v1.0.png and Code Review</t>
+  </si>
+  <si>
+    <t>In timp ce denumireile reflecta rolul claselor, din proiect lipsesc descrierile/documentatiile (ex: Javadocs)</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Nu, de exemplu in cazul chelenrului, acesta nu este notificat in momentul in care bucatoarul finalizeaza o comanda</t>
+  </si>
+  <si>
+    <t>KitchenGUIController.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1243,58 +1280,38 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="1"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="15"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1320,7 +1337,7 @@
       <name val="Courier"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="13"/>
       <color indexed="22"/>
       <name val="Courier"/>
@@ -1546,181 +1563,155 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1730,37 +1721,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff000080"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffc00000"/>
-      <rgbColor rgb="ffe5dfec"/>
-      <rgbColor rgb="fffde9d9"/>
-      <rgbColor rgb="ffd2dae4"/>
-      <rgbColor rgb="ff808080"/>
-      <rgbColor rgb="ffcc7831"/>
-      <rgbColor rgb="ffa9b6c6"/>
-      <rgbColor rgb="ff9776aa"/>
-      <rgbColor rgb="ffffc66d"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFC00000"/>
+      <rgbColor rgb="FFE5DFEC"/>
+      <rgbColor rgb="FFFDE9D9"/>
+      <rgbColor rgb="FFD2DAE4"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFCC7831"/>
+      <rgbColor rgb="FFA9B6C6"/>
+      <rgbColor rgb="FF9776AA"/>
+      <rgbColor rgb="FFFFC66D"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1886,7 +1925,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1895,7 +1934,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1904,7 +1943,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1978,7 +2017,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1986,7 +2025,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2005,7 +2044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2035,7 +2074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2061,7 +2100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2087,7 +2126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2113,7 +2152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2139,7 +2178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2165,7 +2204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2191,7 +2230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2217,7 +2256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2243,7 +2282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,9 +2295,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2273,7 +2318,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -2281,7 +2326,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2300,7 +2345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2326,7 +2371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2352,7 +2397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2378,7 +2423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2404,7 +2449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2430,7 +2475,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2456,7 +2501,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2482,7 +2527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2508,7 +2553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2534,7 +2579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2547,9 +2592,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2563,7 +2614,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2582,7 +2633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2612,7 +2663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2638,7 +2689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2664,7 +2715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2690,7 +2741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2716,7 +2767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2742,7 +2793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2768,7 +2819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2794,7 +2845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2820,7 +2871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2833,107 +2884,115 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="4" width="30.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50.05" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="7" spans="2:4" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="5">
-        <v>54</v>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2941,495 +3000,497 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
-    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
-    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
-    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
+    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" display="Requirements Phase Defects" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" display="Architect. Design Phase Defects" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" display="Coding Phase Defects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" display="Tool-basedCodeAnalysis" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.47265625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.47265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.83984375" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.83984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8"/>
+      <c r="B2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="18">
+    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="D4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="E4" s="49"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="18">
+    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="22">
+      <c r="D5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="E5" s="51"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="16">
+      <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="C6" t="s" s="25">
+    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" t="s" s="25">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="29">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="29">
+      <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s" s="29">
+      <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s" s="30">
+      <c r="E9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="31">
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9"/>
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="32">
+      <c r="C10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="32">
+      <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s" s="33">
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="58" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31">
-        <f>B10+1</f>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9"/>
+      <c r="B11" s="21">
+        <f t="shared" ref="B11:B25" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="32">
+      <c r="C11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s" s="32">
+      <c r="D11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s" s="33">
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="31">
-        <f>B11+1</f>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" t="s" s="32">
+      <c r="C12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s" s="32">
+      <c r="D12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s" s="33">
+      <c r="E12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="43.5" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="31">
-        <f>B12+1</f>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9"/>
+      <c r="B13" s="21">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="32">
+      <c r="C13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s" s="32">
+      <c r="D13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s" s="33">
+      <c r="E13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="31">
-        <f>B13+1</f>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9"/>
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" t="s" s="32">
+      <c r="C14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s" s="32">
+      <c r="D14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s" s="33">
+      <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="31">
-        <f>B14+1</f>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9"/>
+      <c r="B15" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" t="s" s="32">
+      <c r="C15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s" s="32">
+      <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s" s="33">
+      <c r="E15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="43.5" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="31">
-        <f>B15+1</f>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+      <c r="B16" s="21">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" t="s" s="32">
+      <c r="C16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s" s="32">
+      <c r="D16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s" s="33">
+      <c r="E16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="31">
-        <f>B16+1</f>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9"/>
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="31">
-        <f>B17+1</f>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9"/>
+      <c r="B18" s="21">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="31">
-        <f>B18+1</f>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="31">
-        <f>B19+1</f>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="31">
-        <f>B20+1</f>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9"/>
+      <c r="B21" s="21">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="31">
-        <f>B21+1</f>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9"/>
+      <c r="B22" s="21">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="31">
-        <f>B22+1</f>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9"/>
+      <c r="B23" s="21">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="31">
-        <f>B23+1</f>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="21">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="31">
-        <f>B24+1</f>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9"/>
+      <c r="B25" s="21">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" t="s" s="37">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3441,477 +3502,498 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#
-</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="39" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="39" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="39" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="39" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="39" customWidth="1"/>
-    <col min="9" max="9" width="22.1719" style="39" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="39" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="46.5234375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="55.9453125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.15625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.83984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8"/>
+      <c r="B2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="40">
+    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="41">
+      <c r="D4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="E4" s="53"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="40">
+    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="E5" s="55"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="16">
+      <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="C6" t="s" s="25">
+    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" t="s" s="25">
+      <c r="D6" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="29">
+      <c r="D7" s="64">
+        <v>44991</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="29">
+      <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s" s="29">
+      <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s" s="29">
+      <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="31">
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" s="40" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="32">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s" s="33">
-        <v>49</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31">
-        <f>B10+1</f>
+      <c r="C10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" s="40" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34">
+        <f t="shared" ref="B11:B26" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" t="s" s="33">
-        <v>49</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="31">
-        <f>B11+1</f>
+      <c r="C11" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" s="40" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" t="s" s="33">
-        <v>49</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="31">
-        <f>B12+1</f>
+      <c r="C12" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" s="40" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="31">
-        <f>B13+1</f>
+      <c r="C13" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9"/>
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="31">
-        <f>B14+1</f>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9"/>
+      <c r="B15" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="31">
-        <f>B15+1</f>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+      <c r="B16" s="21">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="31">
-        <f>B16+1</f>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9"/>
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="31">
-        <f>B17+1</f>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9"/>
+      <c r="B18" s="21">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="31">
-        <f>B18+1</f>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="31">
-        <f>B19+1</f>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="31">
-        <f>B20+1</f>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9"/>
+      <c r="B21" s="21">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="31">
-        <f>B21+1</f>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9"/>
+      <c r="B22" s="21">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="31">
-        <f>B22+1</f>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9"/>
+      <c r="B23" s="21">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="31">
-        <f>B23+1</f>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="21">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="31">
-        <f>B24+1</f>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9"/>
+      <c r="B25" s="21">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="31">
-        <f>B25+1</f>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9"/>
+      <c r="B26" s="21">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" t="s" s="37">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="8"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3923,529 +4005,528 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#
-</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="45" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="45" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="45" customWidth="1"/>
-    <col min="4" max="4" width="18" style="45" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="45" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="45" customWidth="1"/>
-    <col min="9" max="9" width="26.6719" style="45" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.47265625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.68359375" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.83984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8"/>
+      <c r="B2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="E5" s="59"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9"/>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9"/>
+      <c r="B11" s="21">
+        <f t="shared" ref="B11:B30" si="0">B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9"/>
+      <c r="B13" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9"/>
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9"/>
+      <c r="B15" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+      <c r="B16" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9"/>
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9"/>
+      <c r="B18" s="21">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9"/>
+      <c r="B21" s="21">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9"/>
+      <c r="B22" s="21">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="46">
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9"/>
+      <c r="B23" s="21">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="47">
-        <v>52</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9"/>
+      <c r="B25" s="21">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9"/>
+      <c r="B26" s="21">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J4" t="s" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="46">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9"/>
+      <c r="B27" s="21">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="49">
-        <v>53</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9"/>
+      <c r="B28" s="21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="9"/>
+      <c r="B29" s="21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="16">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="9"/>
+      <c r="B30" s="21">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J5" t="s" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="C6" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="29">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="29">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s" s="29">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="29">
-        <v>27</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="31">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="31">
-        <f>B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="31">
-        <f>B12+1</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="31">
-        <f>B13+1</f>
-        <v>5</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="31">
-        <f>B14+1</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="31">
-        <f>B15+1</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="31">
-        <f>B16+1</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="31">
-        <f>B17+1</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="31">
-        <f>B18+1</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="31">
-        <f>B19+1</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="31">
-        <f>B20+1</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="31">
-        <f>B21+1</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="31">
-        <f>B22+1</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="31">
-        <f>B23+1</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="31">
-        <f>B24+1</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="31">
-        <f>B25+1</f>
-        <v>17</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="31">
-        <f>B26+1</f>
-        <v>18</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="31">
-        <f>B27+1</f>
-        <v>19</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="31">
-        <f>B28+1</f>
-        <v>20</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="31">
-        <f>B29+1</f>
-        <v>21</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" t="s" s="37">
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="8"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4457,580 +4538,581 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#
-</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="51" customWidth="1"/>
-    <col min="2" max="2" width="6.82031" style="51" customWidth="1"/>
-    <col min="3" max="3" width="21.2422" style="51" customWidth="1"/>
-    <col min="4" max="4" width="44.2109" style="51" customWidth="1"/>
-    <col min="5" max="5" width="59.8594" style="51" customWidth="1"/>
-    <col min="6" max="6" width="59.6484" style="51" customWidth="1"/>
-    <col min="7" max="8" width="8.85156" style="51" customWidth="1"/>
-    <col min="9" max="9" width="26.6719" style="51" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="51" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="51" customWidth="1"/>
+    <col min="1" max="1" width="1.47265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.7890625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.26171875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="44.20703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="59.83984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="59.62890625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.83984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.68359375" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.83984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8"/>
+      <c r="B2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="E4" s="57"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9"/>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="307" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9"/>
+      <c r="B11" s="21">
+        <f t="shared" ref="B11:B30" si="0">B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9"/>
+      <c r="B13" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9"/>
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9"/>
+      <c r="B15" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+      <c r="B16" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9"/>
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9"/>
+      <c r="B18" s="21">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9"/>
+      <c r="B21" s="21">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9"/>
+      <c r="B22" s="21">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="46">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s" s="47">
-        <v>57</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9"/>
+      <c r="B23" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9"/>
+      <c r="B25" s="21">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9"/>
+      <c r="B26" s="21">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J4" t="s" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s" s="52">
-        <v>58</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9"/>
+      <c r="B27" s="21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9"/>
+      <c r="B28" s="21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="9"/>
+      <c r="B29" s="21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="16">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="9"/>
+      <c r="B30" s="21">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J5" t="s" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="C6" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="29">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="29">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s" s="29">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s" s="29">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s" s="29">
-        <v>63</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="35" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="31">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="32">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s" s="33">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s" s="53">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s" s="33">
-        <v>67</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="307" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" t="s" s="32">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s" s="33">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s" s="33">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s" s="33">
-        <v>71</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="51" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="31">
-        <f>B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" t="s" s="32">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s" s="32">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s" s="33">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s" s="33">
-        <v>75</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="35" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="31">
-        <f>B12+1</f>
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="32">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s" s="33">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s" s="53">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s" s="33">
-        <v>67</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="99" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="31">
-        <f>B13+1</f>
-        <v>5</v>
-      </c>
-      <c r="C14" t="s" s="32">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s" s="33">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s" s="33">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s" s="33">
-        <v>82</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="51" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="31">
-        <f>B14+1</f>
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="32">
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="8"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s" s="33">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s" s="53">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s" s="33">
-        <v>67</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="31">
-        <f>B15+1</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="31">
-        <f>B16+1</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="31">
-        <f>B17+1</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="31">
-        <f>B18+1</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="31">
-        <f>B19+1</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="31">
-        <f>B20+1</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="31">
-        <f>B21+1</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="31">
-        <f>B22+1</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="31">
-        <f>B23+1</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="31">
-        <f>B24+1</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="31">
-        <f>B25+1</f>
-        <v>17</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="31">
-        <f>B26+1</f>
-        <v>18</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="31">
-        <f>B27+1</f>
-        <v>19</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="31">
-        <f>B28+1</f>
-        <v>20</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="31">
-        <f>B29+1</f>
-        <v>21</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" t="s" s="54">
-        <v>85</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5042,10 +5124,9 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#
-</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei 0920\OneDrive\Desktop\VVSS\Proiect\VVSS\Docs\Lab01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D50D76-53F6-4E24-8E6F-8FBA885CC4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId2"/>
-    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId3"/>
-    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId4"/>
-    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId5"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId5"/>
+    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId6"/>
+    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId7"/>
+    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -38,10 +29,66 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Requirements Phase Defects</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Requirements Phase Defects</t>
+    </r>
+  </si>
+  <si>
+    <t>Architect. Design Phase Defects</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Architect. Design Phase Defects</t>
+    </r>
+  </si>
+  <si>
+    <t>Coding Phase Defects</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Coding Phase Defects</t>
+    </r>
+  </si>
+  <si>
+    <t>Tool-basedCodeAnalysis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Tool-basedCodeAnalysis</t>
+    </r>
   </si>
   <si>
     <t>do not print this form</t>
@@ -125,12 +172,6 @@
     <t>Lipsesc descrierele functionalitatilor prezentate in prima parte: Adaugarea unei comenzi, preluare unei comenzi de catre bucatar, finalizarea unei comenzi de catre bucatar</t>
   </si>
   <si>
-    <t>R03</t>
-  </si>
-  <si>
-    <t>Este okay</t>
-  </si>
-  <si>
     <t>R04</t>
   </si>
   <si>
@@ -143,9 +184,6 @@
     <t>Nu sunt bine structurate functiile</t>
   </si>
   <si>
-    <t>R06</t>
-  </si>
-  <si>
     <t>R07</t>
   </si>
   <si>
@@ -155,9 +193,6 @@
     <t>Effort to review document (hours):</t>
   </si>
   <si>
-    <t>Architect. Design Phase Defects</t>
-  </si>
-  <si>
     <t>Review Form. Architectural Design Defects</t>
   </si>
   <si>
@@ -170,7 +205,41 @@
     <t>Georgescu Anca</t>
   </si>
   <si>
-    <t>Coding Phase Defects</t>
+    <t>Echipa Duracell</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>Lab01_Architectural Design Phase Defects Checklist.pdf</t>
+  </si>
+  <si>
+    <t>Rolurile pentru agregare si asociere nu sunt complet definite. Lipsesc anumite elemete precum ordinul de multiplicitate/denumirea relaitiei. Ex: Relatia intre clasele de MenuRepository si MenuDataModel. 
+Alta probelema, in unele cazuri sunt trasate prea multe sageti intre anumite tabele. Ex: Intre clases Main si PaymentRepository nu ar trebui sa avem si realtie de create si relatie de asociere</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Organizarea programului nu este clara. Spre exemplu in OrderGUI apare o referinta catre PizzaService. Acest lucru nu ar trebui sa se intample deoarece ar trebui sa existe o referinta catre OrderGUIController</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>ClassDiagramPizzaShop_v1.0.png and Code Review</t>
+  </si>
+  <si>
+    <t>In timp ce denumireile reflecta rolul claselor, din proiect lipsesc descrierile/documentatiile (ex: Javadocs)</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>KitchenGUIController.java</t>
+  </si>
+  <si>
+    <t>Nu, de exemplu in cazul chelenrului, acesta nu este notificat in momentul in care bucatoarul finalizeaza o comanda</t>
   </si>
   <si>
     <t>Review Form. Coding Defects</t>
@@ -180,9 +249,6 @@
   </si>
   <si>
     <t>Popescu Ionel</t>
-  </si>
-  <si>
-    <t>Tool-basedCodeAnalysis</t>
   </si>
   <si>
     <t>Tool-based Code Analysis</t>
@@ -308,7 +374,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -424,7 +490,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -679,7 +745,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -803,7 +869,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1091,7 +1157,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1177,7 +1243,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1219,51 +1285,129 @@
 </t>
   </si>
   <si>
+    <t>KitchenGUI.java,15</t>
+  </si>
+  <si>
+    <t>Non constructor methods should not have the same name as the enclosing class.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="24"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>KitchenGUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="25"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="25"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">    VBox vBoxKitchen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">null;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="24"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="25"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="25"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">    VBox vBoxKitchen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">null;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Courier"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
-    <t>Lab01_Architectural Design Phase Defects Checklist.pdf</t>
-  </si>
-  <si>
-    <t>A09</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>Organizarea programului nu este clara. Spre exemplu in OrderGUI apare o referinta catre PizzaService. Acest lucru nu ar trebui sa se intample deoarece ar trebui sa existe o referinta catre OrderGUIController</t>
-  </si>
-  <si>
-    <t>Rolurile pentru agregare si asociere nu sunt complet definite. Lipsesc anumite elemete precum ordinul de multiplicitate/denumirea relaitiei. Ex: Relatia intre clasele de MenuRepository si MenuDataModel. 
-Alta probelema, in unele cazuri sunt trasate prea multe sageti intre anumite tabele. Ex: Intre clases Main si PaymentRepository nu ar trebui sa avem si realtie de create si relatie de asociere</t>
-  </si>
-  <si>
-    <t>Echipa Duracell</t>
-  </si>
-  <si>
-    <t>A07</t>
-  </si>
-  <si>
-    <t>ClassDiagramPizzaShop_v1.0.png and Code Review</t>
-  </si>
-  <si>
-    <t>In timp ce denumireile reflecta rolul claselor, din proiect lipsesc descrierile/documentatiile (ex: Javadocs)</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>Nu, de exemplu in cazul chelenrului, acesta nu este notificat in momentul in care bucatoarul finalizeaza o comanda</t>
-  </si>
-  <si>
-    <t>KitchenGUIController.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1280,38 +1424,58 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i/>
+      <sz val="10"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i val="1"/>
       <sz val="9"/>
       <color indexed="15"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1337,7 +1501,7 @@
       <name val="Courier"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="13"/>
       <color indexed="22"/>
       <name val="Courier"/>
@@ -1345,6 +1509,16 @@
     <font>
       <sz val="13"/>
       <color indexed="23"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="24"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="25"/>
       <name val="Courier"/>
     </font>
   </fonts>
@@ -1363,7 +1537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1392,7 +1566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1402,31 +1576,118 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,13 +1708,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1465,13 +1726,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,26 +1764,37 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -1536,7 +1808,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1548,7 +1820,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1563,155 +1835,256 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="82">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1721,85 +2094,39 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF5E88B1"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFEEF3F4"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFC00000"/>
-      <rgbColor rgb="FFE5DFEC"/>
-      <rgbColor rgb="FFFDE9D9"/>
-      <rgbColor rgb="FFD2DAE4"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FFCC7831"/>
-      <rgbColor rgb="FFA9B6C6"/>
-      <rgbColor rgb="FF9776AA"/>
-      <rgbColor rgb="FFFFC66D"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff000080"/>
+      <rgbColor rgb="ffc00000"/>
+      <rgbColor rgb="ffe5dfec"/>
+      <rgbColor rgb="fffde9d9"/>
+      <rgbColor rgb="ffd2dae4"/>
+      <rgbColor rgb="ff808080"/>
+      <rgbColor rgb="ffcc7831"/>
+      <rgbColor rgb="ffa9b6c6"/>
+      <rgbColor rgb="ff9776aa"/>
+      <rgbColor rgb="ffffc66d"/>
+      <rgbColor rgb="ffffc66d"/>
+      <rgbColor rgb="ffa9b6c6"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1925,7 +2252,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1934,7 +2261,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1943,9 +2270,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2017,7 +2344,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2025,7 +2352,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2044,7 +2371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2053,10 +2380,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2074,7 +2401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2100,7 +2427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2126,7 +2453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2152,7 +2479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2178,7 +2505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2204,7 +2531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,7 +2557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,7 +2583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2282,7 +2609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2295,15 +2622,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2318,15 +2639,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2345,7 +2666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2371,7 +2692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2397,7 +2718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2423,7 +2744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2449,7 +2770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2475,7 +2796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2501,7 +2822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2527,7 +2848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2553,7 +2874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2579,7 +2900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2592,15 +2913,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2614,7 +2929,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2633,7 +2948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2642,10 +2957,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2663,7 +2978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2689,7 +3004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2715,7 +3030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2741,7 +3056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2767,7 +3082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2793,7 +3108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2819,7 +3134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2845,7 +3160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2871,7 +3186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2884,613 +3199,686 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D16"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5234375" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
+    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="41" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="7" spans="2:4" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="B7" s="1" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="D12" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="D14" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
+      <c r="D16" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" display="Requirements Phase Defects" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" display="Architect. Design Phase Defects" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" display="Coding Phase Defects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" display="Tool-basedCodeAnalysis" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
+    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
+    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
+    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
+    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
+    <hyperlink ref="D12" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
+    <hyperlink ref="D14" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
+    <hyperlink ref="D16" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
+    <hyperlink ref="D18" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.47265625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.47265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="8.85156" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.3516" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="25" customWidth="1"/>
+    <col min="4" max="4" width="28" style="25" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="25" customWidth="1"/>
+    <col min="6" max="8" width="8.85156" style="25" customWidth="1"/>
+    <col min="9" max="9" width="21" style="25" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" ht="13.6" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" t="s" s="32">
+        <v>16</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="34"/>
+      <c r="I2" t="s" s="35">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="13.6" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="13.6" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s" s="38">
+        <v>23</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="29"/>
+      <c r="H4" t="s" s="35">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="13.6" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" t="s" s="37">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="41">
+        <v>27</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="29"/>
+      <c r="H5" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="13.6" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="43"/>
+      <c r="C6" t="s" s="44">
+        <v>30</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" ht="13.6" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" t="s" s="44">
+        <v>31</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" ht="13.6" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" ht="13.6" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" t="s" s="48">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="48">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="49">
+        <v>35</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" ht="29.05" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="51">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="51">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s" s="52">
+        <v>38</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" ht="58" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="50">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s" s="51">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s" s="51">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s" s="52">
+        <v>40</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" ht="50.35" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="50">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s" s="51">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="51">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s" s="52">
+        <v>42</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" ht="43.5" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="50">
+        <f>B12+1</f>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s" s="51">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s" s="51">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s" s="52">
+        <v>44</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" ht="46.35" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="50">
+        <f>B13+1</f>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="51">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s" s="51">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s" s="52">
+        <v>46</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" ht="13.6" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="50">
+        <f>B14+1</f>
         <v>6</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" ht="43.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="50">
+        <f>B15+1</f>
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="13.6" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="50">
+        <f>B16+1</f>
         <v>8</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" ht="13.6" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="50">
+        <f>B17+1</f>
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" ht="13.6" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="50">
+        <f>B18+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" ht="13.6" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="50">
+        <f>B19+1</f>
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" ht="13.6" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="50">
+        <f>B20+1</f>
         <v>12</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" ht="13.6" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="50">
+        <f>B21+1</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" ht="13.6" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="50">
+        <f>B22+1</f>
         <v>14</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" ht="13.6" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="50">
+        <f>B23+1</f>
         <v>15</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" ht="13.6" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="50">
+        <f>B24+1</f>
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9"/>
-      <c r="B11" s="21">
-        <f t="shared" ref="B11:B25" si="0">B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9"/>
-      <c r="B14" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9"/>
-      <c r="B15" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
-      <c r="B16" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9"/>
-      <c r="B17" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
-      <c r="B18" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9"/>
-      <c r="B19" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9"/>
-      <c r="B20" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9"/>
-      <c r="B21" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9"/>
-      <c r="B22" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9"/>
-      <c r="B23" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="9"/>
-      <c r="B25" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" ht="13.6" customHeight="1">
+      <c r="A26" s="28"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" ht="13.6" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" t="s" s="59">
+        <v>47</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3502,7 +3890,7 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -3511,489 +3899,487 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="46.5234375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.9453125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.15625" style="5" customWidth="1"/>
-    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="8.85156" style="61" customWidth="1"/>
+    <col min="2" max="2" width="12.3516" style="61" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="61" customWidth="1"/>
+    <col min="4" max="4" width="46.5" style="61" customWidth="1"/>
+    <col min="5" max="5" width="56" style="61" customWidth="1"/>
+    <col min="6" max="8" width="8.85156" style="61" customWidth="1"/>
+    <col min="9" max="9" width="22.1719" style="61" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="61" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" ht="13.6" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" t="s" s="32">
+        <v>48</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="34"/>
+      <c r="I2" t="s" s="35">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="13.6" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="13.6" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" t="s" s="62">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s" s="63">
+        <v>49</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="29"/>
+      <c r="H4" t="s" s="35">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="13.6" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" t="s" s="62">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s" s="65">
+        <v>51</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="29"/>
+      <c r="H5" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="13.6" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="43"/>
+      <c r="C6" t="s" s="44">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s" s="67">
+        <v>52</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" ht="13.6" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" t="s" s="44">
+        <v>31</v>
+      </c>
+      <c r="D7" s="68">
+        <v>44991</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" ht="13.6" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" ht="13.6" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" t="s" s="48">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="48">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="48">
+        <v>35</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" ht="86.1" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="69">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s" s="70">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s" s="70">
+        <v>55</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" ht="55.2" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="50">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s" s="69">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s" s="70">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s" s="70">
+        <v>57</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" ht="30.6" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="50">
+        <f>B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s" s="69">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s" s="70">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s" s="70">
+        <v>60</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" ht="35.1" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="50">
+        <f>B12+1</f>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s" s="69">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s" s="69">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s" s="70">
+        <v>63</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" ht="13.6" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="50">
+        <f>B13+1</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" ht="13.6" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="50">
+        <f>B14+1</f>
         <v>6</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" ht="13.6" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="50">
+        <f>B15+1</f>
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="13.6" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="50">
+        <f>B16+1</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" ht="13.6" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="50">
+        <f>B17+1</f>
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" ht="13.6" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="50">
+        <f>B18+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" ht="13.6" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="50">
+        <f>B19+1</f>
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" ht="13.6" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="50">
+        <f>B20+1</f>
         <v>12</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" ht="13.6" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="50">
+        <f>B21+1</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="29" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" ht="13.6" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="50">
+        <f>B22+1</f>
         <v>14</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" ht="13.6" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="50">
+        <f>B23+1</f>
+        <v>15</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" ht="13.6" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="50">
+        <f>B24+1</f>
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" ht="13.6" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="50">
+        <f>B25+1</f>
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="54" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" ht="13.6" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" ht="13.6" customHeight="1">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" t="s" s="59">
         <v>47</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="64">
-        <v>44991</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" s="40" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34">
-        <v>1</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" s="40" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34">
-        <f t="shared" ref="B11:B26" si="0">B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" s="40" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" s="40" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9"/>
-      <c r="B14" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9"/>
-      <c r="B15" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
-      <c r="B16" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9"/>
-      <c r="B17" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
-      <c r="B18" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9"/>
-      <c r="B19" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9"/>
-      <c r="B20" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9"/>
-      <c r="B21" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9"/>
-      <c r="B22" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9"/>
-      <c r="B23" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="9"/>
-      <c r="B25" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="9"/>
-      <c r="B26" s="21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4005,7 +4391,7 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -4014,519 +4400,519 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.47265625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.68359375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="8.85156" style="71" customWidth="1"/>
+    <col min="2" max="2" width="12.3516" style="71" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="71" customWidth="1"/>
+    <col min="4" max="4" width="18" style="71" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="71" customWidth="1"/>
+    <col min="6" max="8" width="8.85156" style="71" customWidth="1"/>
+    <col min="9" max="9" width="26.6719" style="71" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="71" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" ht="13.6" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" t="s" s="32">
+        <v>64</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="34"/>
+      <c r="I2" t="s" s="35">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="13.6" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="13.6" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" t="s" s="72">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s" s="73">
+        <v>65</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="29"/>
+      <c r="H4" t="s" s="35">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="13.6" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" t="s" s="72">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="75">
+        <v>66</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="29"/>
+      <c r="H5" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="13.6" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="43"/>
+      <c r="C6" t="s" s="44">
+        <v>30</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" ht="13.6" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" t="s" s="44">
+        <v>31</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" ht="13.6" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" ht="13.6" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" t="s" s="48">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="48">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="48">
+        <v>35</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" ht="13.6" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" ht="13.6" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="50">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" ht="13.6" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="50">
+        <f>B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" ht="13.6" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="50">
+        <f>B12+1</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" ht="13.6" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="50">
+        <f>B13+1</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" ht="13.6" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="50">
+        <f>B14+1</f>
         <v>6</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" ht="13.6" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="50">
+        <f>B15+1</f>
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="13.6" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="50">
+        <f>B16+1</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" ht="13.6" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="50">
+        <f>B17+1</f>
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" ht="13.6" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="50">
+        <f>B18+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" ht="13.6" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="50">
+        <f>B19+1</f>
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" ht="13.6" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="50">
+        <f>B20+1</f>
         <v>12</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" ht="13.6" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="50">
+        <f>B21+1</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="30" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" ht="13.6" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="50">
+        <f>B22+1</f>
         <v>14</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" ht="13.6" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="50">
+        <f>B23+1</f>
+        <v>15</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" ht="13.6" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="50">
+        <f>B24+1</f>
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" ht="13.6" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="50">
+        <f>B25+1</f>
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="30" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" ht="13.6" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="50">
+        <f>B26+1</f>
         <v>18</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" ht="13.6" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="50">
+        <f>B27+1</f>
+        <v>19</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" ht="13.6" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="50">
+        <f>B28+1</f>
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" ht="13.6" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="50">
+        <f>B29+1</f>
         <v>21</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9"/>
-      <c r="B11" s="21">
-        <f t="shared" ref="B11:B30" si="0">B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9"/>
-      <c r="B14" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9"/>
-      <c r="B15" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
-      <c r="B16" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9"/>
-      <c r="B17" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
-      <c r="B18" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9"/>
-      <c r="B19" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9"/>
-      <c r="B20" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9"/>
-      <c r="B21" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9"/>
-      <c r="B22" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9"/>
-      <c r="B23" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="9"/>
-      <c r="B25" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="9"/>
-      <c r="B26" s="21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="9"/>
-      <c r="B27" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="9"/>
-      <c r="B28" s="21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="9"/>
-      <c r="B29" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="9"/>
-      <c r="B30" s="21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="8"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" ht="13.6" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" ht="13.6" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" t="s" s="59">
+        <v>47</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4538,7 +4924,7 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -4547,572 +4933,578 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="1.47265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.7890625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.26171875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44.20703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="59.83984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="59.62890625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="8.83984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.68359375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="1.5" style="77" customWidth="1"/>
+    <col min="2" max="2" width="6.85156" style="77" customWidth="1"/>
+    <col min="3" max="3" width="21.3516" style="77" customWidth="1"/>
+    <col min="4" max="4" width="44.1719" style="77" customWidth="1"/>
+    <col min="5" max="5" width="59.8516" style="77" customWidth="1"/>
+    <col min="6" max="6" width="59.6719" style="77" customWidth="1"/>
+    <col min="7" max="8" width="8.85156" style="77" customWidth="1"/>
+    <col min="9" max="9" width="26.6719" style="77" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="77" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" ht="13.6" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" t="s" s="32">
+        <v>67</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="34"/>
+      <c r="I2" t="s" s="35">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="13.6" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="13.6" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" t="s" s="72">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s" s="73">
+        <v>69</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="29"/>
+      <c r="H4" t="s" s="35">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="13.6" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" t="s" s="44">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s" s="67">
+        <v>70</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="29"/>
+      <c r="H5" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="13.6" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="43"/>
+      <c r="C6" t="s" s="44">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="67">
+        <v>71</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" ht="13.6" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" ht="13.6" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" ht="13.6" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" t="s" s="48">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="48">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s" s="48">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s" s="48">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s" s="48">
+        <v>75</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" ht="35.05" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="51">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s" s="52">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s" s="78">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s" s="52">
+        <v>79</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" ht="307" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="50">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s" s="51">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s" s="52">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s" s="52">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s" s="52">
+        <v>83</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" ht="51" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="50">
+        <f>B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s" s="51">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s" s="51">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s" s="52">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s" s="52">
+        <v>87</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" ht="35.05" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="50">
+        <f>B12+1</f>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s" s="51">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s" s="78">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s" s="52">
+        <v>79</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" ht="99" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="50">
+        <f>B13+1</f>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="51">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s" s="52">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s" s="52">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s" s="52">
+        <v>94</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" ht="51" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="50">
+        <f>B14+1</f>
         <v>6</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="C15" t="s" s="51">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s" s="78">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s" s="52">
+        <v>79</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" ht="67" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="50">
+        <f>B15+1</f>
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="C16" t="s" s="51">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s" s="52">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s" s="52">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s" s="52">
+        <v>100</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="13.6" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="50">
+        <f>B16+1</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" ht="13.6" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="50">
+        <f>B17+1</f>
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" ht="13.6" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="50">
+        <f>B18+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" ht="13.6" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="50">
+        <f>B19+1</f>
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" ht="13.6" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="50">
+        <f>B20+1</f>
         <v>12</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" ht="13.6" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="50">
+        <f>B21+1</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" ht="13.6" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="50">
+        <f>B22+1</f>
+        <v>14</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" ht="13.6" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="50">
+        <f>B23+1</f>
+        <v>15</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" ht="13.6" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="50">
+        <f>B24+1</f>
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" ht="13.6" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="50">
+        <f>B25+1</f>
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" ht="13.6" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="50">
+        <f>B26+1</f>
+        <v>18</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" ht="13.6" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="50">
+        <f>B27+1</f>
+        <v>19</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" ht="13.6" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="50">
+        <f>B28+1</f>
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" ht="13.6" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="50">
+        <f>B29+1</f>
         <v>21</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="307" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9"/>
-      <c r="B11" s="21">
-        <f t="shared" ref="B11:B30" si="0">B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9"/>
-      <c r="B14" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9"/>
-      <c r="B15" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
-      <c r="B16" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9"/>
-      <c r="B17" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
-      <c r="B18" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9"/>
-      <c r="B19" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9"/>
-      <c r="B20" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9"/>
-      <c r="B21" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9"/>
-      <c r="B22" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9"/>
-      <c r="B23" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9"/>
-      <c r="B24" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="9"/>
-      <c r="B25" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="9"/>
-      <c r="B26" s="21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="9"/>
-      <c r="B27" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="9"/>
-      <c r="B28" s="21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="9"/>
-      <c r="B29" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="9"/>
-      <c r="B30" s="21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="8"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" ht="13.6" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" ht="13.6" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" t="s" s="79">
+        <v>101</v>
+      </c>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5124,7 +5516,7 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei 0920\OneDrive\Desktop\VVSS\Proiect\VVSS\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolae.andries\IdeaProjects\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D50D76-53F6-4E24-8E6F-8FBA885CC4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0C8405-10E8-482F-9B54-146293C1D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,24 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1257,6 +1270,30 @@
   </si>
   <si>
     <t>KitchenGUIController.java</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>KitchenGUIController</t>
+  </si>
+  <si>
+    <t>Block-urile else-if si else au acelasi cod, prin urmare am simplificat codul si am lasat doar block-ul else</t>
+  </si>
+  <si>
+    <t>KitchenGUI</t>
+  </si>
+  <si>
+    <t>In metoda run() exista un while(true) care nu are o conditie de oprire</t>
+  </si>
+  <si>
+    <t>Este apelat un Optional fara a fi verificat daca nu este null</t>
   </si>
 </sst>
 </file>
@@ -1643,6 +1680,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1680,6 +1720,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1705,12 +1748,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2907,20 +2944,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5234375" customWidth="1"/>
+    <col min="2" max="4" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="7" spans="2:4" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="7" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2931,14 +2968,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -2947,14 +2984,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -2963,14 +3000,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -2979,14 +3016,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -3006,6 +3043,9 @@
     <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" display="Tool-basedCodeAnalysis" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3013,23 +3053,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="28" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.47265625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.47265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="10" max="10" width="14.453125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>6</v>
@@ -3039,20 +3079,20 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
@@ -3063,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
@@ -3081,16 +3121,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
       <c r="H4" s="11" t="s">
@@ -3103,16 +3143,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
@@ -3125,35 +3165,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="14"/>
       <c r="G6" s="8"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="14"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="18"/>
@@ -3165,7 +3205,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="19" t="s">
         <v>24</v>
@@ -3185,7 +3225,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="21">
         <v>1</v>
@@ -3205,7 +3245,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="21">
         <f t="shared" ref="B11:B25" si="0">B10+1</f>
@@ -3226,7 +3266,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
@@ -3247,7 +3287,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="21">
         <f t="shared" si="0"/>
@@ -3268,7 +3308,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
@@ -3289,7 +3329,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
@@ -3310,7 +3350,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="21">
         <f t="shared" si="0"/>
@@ -3331,7 +3371,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="21">
         <f t="shared" si="0"/>
@@ -3346,7 +3386,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="21">
         <f t="shared" si="0"/>
@@ -3361,7 +3401,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="21">
         <f t="shared" si="0"/>
@@ -3376,7 +3416,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="21">
         <f t="shared" si="0"/>
@@ -3391,7 +3431,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="21">
         <f t="shared" si="0"/>
@@ -3406,7 +3446,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="21">
         <f t="shared" si="0"/>
@@ -3421,7 +3461,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="21">
         <f t="shared" si="0"/>
@@ -3436,7 +3476,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="21">
         <f t="shared" si="0"/>
@@ -3451,7 +3491,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="21">
         <f t="shared" si="0"/>
@@ -3466,7 +3506,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -3478,7 +3518,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="27" t="s">
@@ -3504,7 +3544,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -3514,24 +3554,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="46.5234375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.9453125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.15625" style="5" customWidth="1"/>
-    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="8.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="55.90625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>6</v>
@@ -3541,20 +3581,20 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
@@ -3565,7 +3605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
@@ -3583,16 +3623,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
       <c r="H4" s="11" t="s">
@@ -3605,16 +3645,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="14"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
@@ -3627,39 +3667,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="14"/>
       <c r="G6" s="8"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="55">
         <v>44991</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="14"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="18"/>
@@ -3671,7 +3711,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="19" t="s">
         <v>24</v>
@@ -3691,7 +3731,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" s="40" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" s="40" customFormat="1" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="34">
         <v>1</v>
@@ -3711,13 +3751,13 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
     </row>
-    <row r="11" spans="1:10" s="40" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" s="40" customFormat="1" ht="55.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33"/>
       <c r="B11" s="34">
         <f t="shared" ref="B11:B26" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="36" t="s">
@@ -3732,13 +3772,13 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
     </row>
-    <row r="12" spans="1:10" s="40" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" s="40" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33"/>
       <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="41" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -3753,16 +3793,16 @@
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
     </row>
-    <row r="13" spans="1:10" s="40" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" s="40" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33"/>
       <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="41" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -3774,7 +3814,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
     </row>
-    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
@@ -3789,7 +3829,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
@@ -3804,7 +3844,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="21">
         <f t="shared" si="0"/>
@@ -3819,7 +3859,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="21">
         <f t="shared" si="0"/>
@@ -3834,7 +3874,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="21">
         <f t="shared" si="0"/>
@@ -3849,7 +3889,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="21">
         <f t="shared" si="0"/>
@@ -3864,7 +3904,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="21">
         <f t="shared" si="0"/>
@@ -3879,7 +3919,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="21">
         <f t="shared" si="0"/>
@@ -3894,7 +3934,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="21">
         <f t="shared" si="0"/>
@@ -3909,7 +3949,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="21">
         <f t="shared" si="0"/>
@@ -3924,7 +3964,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="21">
         <f t="shared" si="0"/>
@@ -3939,7 +3979,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="21">
         <f t="shared" si="0"/>
@@ -3954,7 +3994,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="21">
         <f t="shared" si="0"/>
@@ -3969,7 +4009,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -3981,7 +4021,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
@@ -4007,7 +4047,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -4017,22 +4057,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.3671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.47265625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.83984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.68359375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="8.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>6</v>
@@ -4042,20 +4084,20 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
@@ -4066,7 +4108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
@@ -4084,16 +4126,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
       <c r="H4" s="11" t="s">
@@ -4106,16 +4148,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="14"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
@@ -4128,35 +4170,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="14"/>
       <c r="G6" s="8"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="14"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="18"/>
@@ -4168,7 +4210,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="19" t="s">
         <v>24</v>
@@ -4188,51 +4230,69 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="21">
         <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="21">
         <f t="shared" si="0"/>
@@ -4247,7 +4307,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
@@ -4262,7 +4322,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
@@ -4277,7 +4337,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="21">
         <f t="shared" si="0"/>
@@ -4292,7 +4352,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="21">
         <f t="shared" si="0"/>
@@ -4307,7 +4367,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="21">
         <f t="shared" si="0"/>
@@ -4322,7 +4382,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="21">
         <f t="shared" si="0"/>
@@ -4337,7 +4397,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="21">
         <f t="shared" si="0"/>
@@ -4352,7 +4412,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="21">
         <f t="shared" si="0"/>
@@ -4367,7 +4427,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="21">
         <f t="shared" si="0"/>
@@ -4382,7 +4442,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="21">
         <f t="shared" si="0"/>
@@ -4397,7 +4457,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="21">
         <f t="shared" si="0"/>
@@ -4412,7 +4472,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="21">
         <f t="shared" si="0"/>
@@ -4427,7 +4487,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="21">
         <f t="shared" si="0"/>
@@ -4442,7 +4502,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="21">
         <f t="shared" si="0"/>
@@ -4457,7 +4517,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="21">
         <f t="shared" si="0"/>
@@ -4472,7 +4532,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="21">
         <f t="shared" si="0"/>
@@ -4487,7 +4547,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="21">
         <f t="shared" si="0"/>
@@ -4502,7 +4562,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -4514,7 +4574,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="27" t="s">
@@ -4540,7 +4600,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -4550,25 +4610,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.47265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.7890625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.26171875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44.20703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="59.83984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="59.62890625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="8.83984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.68359375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="8.83984375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="1.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="59.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="59.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>6</v>
@@ -4578,20 +4638,20 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
@@ -4602,7 +4662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
@@ -4620,16 +4680,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
       <c r="H4" s="11" t="s">
@@ -4642,16 +4702,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="14"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
@@ -4664,23 +4724,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="14"/>
       <c r="G6" s="8"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="17"/>
@@ -4692,7 +4752,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4704,7 +4764,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="19" t="s">
         <v>24</v>
@@ -4726,7 +4786,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="21">
         <v>1</v>
@@ -4748,7 +4808,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="307" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="307" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="21">
         <f t="shared" ref="B11:B30" si="0">B10+1</f>
@@ -4771,7 +4831,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
@@ -4794,7 +4854,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="21">
         <f t="shared" si="0"/>
@@ -4817,7 +4877,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
@@ -4840,7 +4900,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
@@ -4863,7 +4923,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="21">
         <f t="shared" si="0"/>
@@ -4878,7 +4938,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="21">
         <f t="shared" si="0"/>
@@ -4893,7 +4953,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="21">
         <f t="shared" si="0"/>
@@ -4908,7 +4968,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="21">
         <f t="shared" si="0"/>
@@ -4923,7 +4983,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="21">
         <f t="shared" si="0"/>
@@ -4938,7 +4998,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="21">
         <f t="shared" si="0"/>
@@ -4953,7 +5013,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="21">
         <f t="shared" si="0"/>
@@ -4968,7 +5028,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="21">
         <f t="shared" si="0"/>
@@ -4983,7 +5043,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="21">
         <f t="shared" si="0"/>
@@ -4998,7 +5058,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="21">
         <f t="shared" si="0"/>
@@ -5013,7 +5073,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="21">
         <f t="shared" si="0"/>
@@ -5028,7 +5088,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="21">
         <f t="shared" si="0"/>
@@ -5043,7 +5103,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="21">
         <f t="shared" si="0"/>
@@ -5058,7 +5118,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="21">
         <f t="shared" si="0"/>
@@ -5073,7 +5133,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="21">
         <f t="shared" si="0"/>
@@ -5088,7 +5148,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5100,14 +5160,14 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="13.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="32"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -5126,7 +5186,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,21 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolae.andries\IdeaProjects\VVSS\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CC4B76-21DF-4096-804D-50A5EF88D50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId5"/>
-    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId6"/>
-    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId7"/>
-    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId8"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId2"/>
+    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId3"/>
+    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId4"/>
+    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -29,9 +52,6 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
-    <t>Export Summary</t>
-  </si>
-  <si>
     <t>Table 1</t>
   </si>
   <si>
@@ -40,7 +60,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -52,43 +72,10 @@
     <t>Architect. Design Phase Defects</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Architect. Design Phase Defects</t>
-    </r>
-  </si>
-  <si>
     <t>Coding Phase Defects</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Coding Phase Defects</t>
-    </r>
-  </si>
-  <si>
     <t>Tool-basedCodeAnalysis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Tool-basedCodeAnalysis</t>
-    </r>
   </si>
   <si>
     <t>do not print this form</t>
@@ -374,7 +361,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -490,7 +477,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -745,7 +732,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -869,7 +856,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1157,7 +1144,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1243,7 +1230,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="13"/>
         <color indexed="22"/>
         <rFont val="Courier"/>
@@ -1398,16 +1385,46 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>KitchenGUI</t>
+  </si>
+  <si>
+    <t>Block-urile else-if si else au acelasi cod, prin urmare am simplificat codul si am lasat doar block-ul else</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>KitchenGUIController</t>
+  </si>
+  <si>
+    <t>In metoda run() exista un while(true) care nu are o conditie de oprire</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>Este apelat un Optional fara a fi verificat daca nu este null</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>PaymentRepository</t>
+  </si>
+  <si>
+    <t>Nu sunt mesaje explicite de eroare, sunt printate doar stackRace-urile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1424,58 +1441,38 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="1"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="15"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1501,7 +1498,7 @@
       <name val="Courier"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="13"/>
       <color indexed="22"/>
       <name val="Courier"/>
@@ -1566,7 +1563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1634,15 +1631,6 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1835,256 +1823,164 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="78">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="82">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2094,39 +1990,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff000080"/>
-      <rgbColor rgb="ffc00000"/>
-      <rgbColor rgb="ffe5dfec"/>
-      <rgbColor rgb="fffde9d9"/>
-      <rgbColor rgb="ffd2dae4"/>
-      <rgbColor rgb="ff808080"/>
-      <rgbColor rgb="ffcc7831"/>
-      <rgbColor rgb="ffa9b6c6"/>
-      <rgbColor rgb="ff9776aa"/>
-      <rgbColor rgb="ffffc66d"/>
-      <rgbColor rgb="ffffc66d"/>
-      <rgbColor rgb="ffa9b6c6"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFC00000"/>
+      <rgbColor rgb="FFE5DFEC"/>
+      <rgbColor rgb="FFFDE9D9"/>
+      <rgbColor rgb="FFD2DAE4"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFCC7831"/>
+      <rgbColor rgb="FFA9B6C6"/>
+      <rgbColor rgb="FF9776AA"/>
+      <rgbColor rgb="FFFFC66D"/>
+      <rgbColor rgb="FFFFC66D"/>
+      <rgbColor rgb="FFA9B6C6"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2252,7 +2194,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2261,7 +2203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2270,7 +2212,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2344,7 +2286,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2352,7 +2294,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2371,7 +2313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2401,7 +2343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2427,7 +2369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2453,7 +2395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2479,7 +2421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2505,7 +2447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2531,7 +2473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2557,7 +2499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2583,7 +2525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2609,7 +2551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2622,9 +2564,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2639,7 +2587,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2647,7 +2595,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2666,7 +2614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2692,7 +2640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2718,7 +2666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2744,7 +2692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2770,7 +2718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2796,7 +2744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2822,7 +2770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2848,7 +2796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2874,7 +2822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2900,7 +2848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2913,9 +2861,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2929,7 +2883,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2948,7 +2902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2978,7 +2932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3004,7 +2958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3030,7 +2984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3056,7 +3010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3082,7 +3036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3108,7 +3062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3134,7 +3088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3160,7 +3114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3186,7 +3140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3199,686 +3153,690 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="1" max="1" width="2" style="6" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2" style="4" customWidth="1"/>
+    <col min="2" max="4" width="30.453125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="13">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s" s="14">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="15">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="18">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" t="s" s="3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="5">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="5">
-        <v>12</v>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
-    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
-    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
-    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
-    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
-    <hyperlink ref="D12" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
-    <hyperlink ref="D14" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
-    <hyperlink ref="D16" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
-    <hyperlink ref="D18" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" display="Export Summary" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" display="Requirements Phase Defects" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" display="Architect. Design Phase Defects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" display="Coding Phase Defects" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" display="Tool-basedCodeAnalysis" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D12" location="'Requirements Phase Defects'!R1C1" display="Requirements Phase Defects" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D14" location="'Architect. Design Phase Defects'!R1C1" display="Architect. Design Phase Defects" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D16" location="'Coding Phase Defects'!R1C1" display="Coding Phase Defects" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D18" location="'Tool-basedCodeAnalysis'!R1C1" display="Tool-basedCodeAnalysis" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="25" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="25" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="25" customWidth="1"/>
-    <col min="4" max="4" width="28" style="25" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="25" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="25" customWidth="1"/>
-    <col min="9" max="9" width="21" style="25" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="25" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="28" style="19" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="19" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="19" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" t="s" s="27">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" t="s" s="30">
+    </row>
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" ht="13.6" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" t="s" s="32">
+      <c r="I3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="34"/>
-      <c r="I2" t="s" s="35">
+      <c r="J3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="35">
+    </row>
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="13.6" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" t="s" s="35">
+      <c r="D4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s" s="35">
+      <c r="E4" s="63"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s" s="35">
+      <c r="I4" s="25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" ht="13.6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" t="s" s="37">
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="38">
+      <c r="D5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="29"/>
-      <c r="H4" t="s" s="35">
+      <c r="E5" s="65"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="35">
+      <c r="I5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="13.6" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" t="s" s="37">
+      <c r="J5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s" s="41">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="29"/>
-      <c r="H5" t="s" s="35">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s" s="35">
+      <c r="C9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="13.6" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="43"/>
-      <c r="C6" t="s" s="44">
+      <c r="D9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" ht="13.6" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" t="s" s="44">
+      <c r="E9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" ht="13.6" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" ht="13.6" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" t="s" s="48">
+      <c r="F9" s="28"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s" s="48">
+      <c r="D10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s" s="48">
+      <c r="E10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s" s="49">
-        <v>35</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" ht="29.05" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="50">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="51">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="51">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s" s="52">
-        <v>38</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" ht="58" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="50">
+      <c r="F10" s="28"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="35">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="51">
+      <c r="C11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="35">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="35">
+        <f t="shared" ref="B13:B25" si="0">B12+1</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s" s="51">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s" s="52">
+      <c r="D13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" ht="50.35" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="50">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s" s="51">
+      <c r="F13" s="28"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s" s="51">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s" s="52">
+      <c r="D14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" ht="43.5" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="50">
-        <f>B12+1</f>
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="51">
+      <c r="F14" s="28"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s" s="51">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s" s="52">
-        <v>44</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" ht="46.35" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="50">
-        <f>B13+1</f>
-        <v>5</v>
-      </c>
-      <c r="C14" t="s" s="51">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s" s="51">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s" s="52">
-        <v>46</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" ht="13.6" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="50">
-        <f>B14+1</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" ht="43.5" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="50">
-        <f>B15+1</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" ht="13.6" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="50">
-        <f>B16+1</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" ht="13.6" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="50">
-        <f>B17+1</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" ht="13.6" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="50">
-        <f>B18+1</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" ht="13.6" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="50">
-        <f>B19+1</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" ht="13.6" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="50">
-        <f>B20+1</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" ht="13.6" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="50">
-        <f>B21+1</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" ht="13.6" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="50">
-        <f>B22+1</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" ht="13.6" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="50">
-        <f>B23+1</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" ht="13.6" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="50">
-        <f>B24+1</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" ht="13.6" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" ht="13.6" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" t="s" s="59">
-        <v>47</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3890,496 +3848,496 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="61" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="61" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="61" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="61" customWidth="1"/>
-    <col min="5" max="5" width="56" style="61" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="61" customWidth="1"/>
-    <col min="9" max="9" width="22.1719" style="61" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="61" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="56" style="46" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="46" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" t="s" s="27">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" t="s" s="30">
+    </row>
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" ht="13.6" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" t="s" s="32">
+      <c r="I3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="34"/>
-      <c r="I2" t="s" s="35">
+      <c r="E6" s="57"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="69">
+        <v>44991</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="55.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="35">
+        <f t="shared" ref="B11:B26" si="0">B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="35">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="13.6" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" t="s" s="35">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s" s="35">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="13.6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" t="s" s="62">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="63">
-        <v>49</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="29"/>
-      <c r="H4" t="s" s="35">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s" s="35">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="13.6" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" t="s" s="62">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s" s="65">
-        <v>51</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="29"/>
-      <c r="H5" t="s" s="35">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s" s="35">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="13.6" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="43"/>
-      <c r="C6" t="s" s="44">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s" s="67">
-        <v>52</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" ht="13.6" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" t="s" s="44">
-        <v>31</v>
-      </c>
-      <c r="D7" s="68">
-        <v>44991</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" ht="13.6" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" ht="13.6" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" t="s" s="48">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s" s="48">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s" s="48">
-        <v>35</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" ht="86.1" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="50">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="69">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s" s="70">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s" s="70">
-        <v>55</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" ht="55.2" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="50">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" t="s" s="69">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s" s="70">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s" s="70">
-        <v>57</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" ht="30.6" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="50">
-        <f>B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" t="s" s="69">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s" s="70">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s" s="70">
-        <v>60</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" ht="35.1" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="50">
-        <f>B12+1</f>
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="69">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s" s="69">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s" s="70">
-        <v>63</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" ht="13.6" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="50">
-        <f>B13+1</f>
-        <v>5</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" ht="13.6" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="50">
-        <f>B14+1</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" ht="13.6" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="50">
-        <f>B15+1</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" ht="13.6" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="50">
-        <f>B16+1</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" ht="13.6" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="50">
-        <f>B17+1</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" ht="13.6" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="50">
-        <f>B18+1</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" ht="13.6" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="50">
-        <f>B19+1</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" ht="13.6" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="50">
-        <f>B20+1</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" ht="13.6" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="50">
-        <f>B21+1</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" ht="13.6" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="50">
-        <f>B22+1</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" ht="13.6" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="50">
-        <f>B23+1</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" ht="13.6" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="50">
-        <f>B24+1</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" ht="13.6" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="50">
-        <f>B25+1</f>
-        <v>17</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" ht="13.6" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" ht="13.6" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" t="s" s="59">
-        <v>47</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4391,528 +4349,551 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="71" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="71" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="71" customWidth="1"/>
-    <col min="4" max="4" width="18" style="71" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="71" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="71" customWidth="1"/>
-    <col min="9" max="9" width="26.6719" style="71" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="71" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="71" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="18" style="50" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="50" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" style="50" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="50" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" t="s" s="27">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" t="s" s="30">
+    </row>
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" ht="13.6" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" t="s" s="32">
-        <v>64</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="34"/>
-      <c r="I2" t="s" s="35">
+      <c r="I3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="35">
+    </row>
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="13.6" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" t="s" s="35">
+      <c r="D4" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="35">
+        <v>3</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="35">
+        <f t="shared" ref="B11:B30" si="0">B13+1</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="35">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I3" t="s" s="35">
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="35">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J3" t="s" s="35">
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="35">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="4" ht="13.6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" t="s" s="72">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="73">
-        <v>65</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="29"/>
-      <c r="H4" t="s" s="35">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s" s="35">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="13.6" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" t="s" s="72">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s" s="75">
-        <v>66</v>
-      </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="29"/>
-      <c r="H5" t="s" s="35">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s" s="35">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="13.6" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="43"/>
-      <c r="C6" t="s" s="44">
-        <v>30</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" ht="13.6" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" t="s" s="44">
-        <v>31</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" ht="13.6" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" ht="13.6" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" t="s" s="48">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s" s="48">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s" s="48">
-        <v>35</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" ht="13.6" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="50">
-        <v>1</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" ht="13.6" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="50">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" ht="13.6" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="50">
-        <f>B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" ht="13.6" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="50">
-        <f>B12+1</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" ht="13.6" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="50">
-        <f>B13+1</f>
-        <v>5</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" ht="13.6" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="50">
-        <f>B14+1</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" ht="13.6" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="50">
-        <f>B15+1</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" ht="13.6" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="50">
-        <f>B16+1</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" ht="13.6" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="50">
-        <f>B17+1</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" ht="13.6" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="50">
-        <f>B18+1</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" ht="13.6" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="50">
-        <f>B19+1</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" ht="13.6" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="50">
-        <f>B20+1</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" ht="13.6" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="50">
-        <f>B21+1</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" ht="13.6" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="50">
-        <f>B22+1</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" ht="13.6" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="50">
-        <f>B23+1</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" ht="13.6" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="50">
-        <f>B24+1</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" ht="13.6" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="50">
-        <f>B25+1</f>
-        <v>17</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" ht="13.6" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="50">
-        <f>B26+1</f>
-        <v>18</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" ht="13.6" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="50">
-        <f>B27+1</f>
-        <v>19</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" ht="13.6" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="50">
-        <f>B28+1</f>
-        <v>20</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" ht="13.6" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="50">
-        <f>B29+1</f>
-        <v>21</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" ht="13.6" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" ht="13.6" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" t="s" s="59">
-        <v>47</v>
-      </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4924,587 +4905,587 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="77" customWidth="1"/>
-    <col min="2" max="2" width="6.85156" style="77" customWidth="1"/>
-    <col min="3" max="3" width="21.3516" style="77" customWidth="1"/>
-    <col min="4" max="4" width="44.1719" style="77" customWidth="1"/>
-    <col min="5" max="5" width="59.8516" style="77" customWidth="1"/>
-    <col min="6" max="6" width="59.6719" style="77" customWidth="1"/>
-    <col min="7" max="8" width="8.85156" style="77" customWidth="1"/>
-    <col min="9" max="9" width="26.6719" style="77" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="77" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="77" customWidth="1"/>
+    <col min="1" max="1" width="1.453125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="59.81640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="59.6328125" style="52" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" style="52" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="52" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" t="s" s="27">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" t="s" s="30">
+    </row>
+    <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" ht="13.6" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" t="s" s="32">
+      <c r="I3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="34"/>
-      <c r="I2" t="s" s="35">
+      <c r="E6" s="57"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="307" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="35">
+        <f t="shared" ref="B11:B30" si="0">B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="35">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="35">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="35">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="13.6" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" t="s" s="35">
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="35">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I3" t="s" s="35">
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="35">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J3" t="s" s="35">
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="35">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="4" ht="13.6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" t="s" s="72">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s" s="73">
-        <v>69</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="29"/>
-      <c r="H4" t="s" s="35">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s" s="35">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="13.6" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" t="s" s="44">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s" s="67">
-        <v>70</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="29"/>
-      <c r="H5" t="s" s="35">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s" s="35">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="13.6" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="43"/>
-      <c r="C6" t="s" s="44">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="67">
-        <v>71</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" ht="13.6" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" ht="13.6" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" ht="13.6" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" t="s" s="48">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s" s="48">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s" s="48">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s" s="48">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s" s="48">
-        <v>75</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" ht="35.05" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="50">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="51">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s" s="52">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s" s="78">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s" s="52">
-        <v>79</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" ht="307" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="50">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" t="s" s="51">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s" s="52">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s" s="52">
-        <v>82</v>
-      </c>
-      <c r="F11" t="s" s="52">
-        <v>83</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" ht="51" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="50">
-        <f>B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" t="s" s="51">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s" s="51">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s" s="52">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s" s="52">
-        <v>87</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" ht="35.05" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="50">
-        <f>B12+1</f>
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="51">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s" s="78">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s" s="52">
-        <v>79</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" ht="99" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="50">
-        <f>B13+1</f>
-        <v>5</v>
-      </c>
-      <c r="C14" t="s" s="51">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s" s="52">
-        <v>92</v>
-      </c>
-      <c r="E14" t="s" s="52">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s" s="52">
-        <v>94</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" ht="51" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="50">
-        <f>B14+1</f>
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="51">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E15" t="s" s="78">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s" s="52">
-        <v>79</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" ht="67" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="50">
-        <f>B15+1</f>
-        <v>7</v>
-      </c>
-      <c r="C16" t="s" s="51">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="s" s="52">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s" s="52">
-        <v>99</v>
-      </c>
-      <c r="F16" t="s" s="52">
-        <v>100</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" ht="13.6" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="50">
-        <f>B16+1</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" ht="13.6" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="50">
-        <f>B17+1</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" ht="13.6" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="50">
-        <f>B18+1</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" ht="13.6" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="50">
-        <f>B19+1</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" ht="13.6" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="50">
-        <f>B20+1</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" ht="13.6" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="50">
-        <f>B21+1</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" ht="13.6" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="50">
-        <f>B22+1</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" ht="13.6" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="50">
-        <f>B23+1</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" ht="13.6" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="50">
-        <f>B24+1</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" ht="13.6" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="50">
-        <f>B25+1</f>
-        <v>17</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" ht="13.6" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="50">
-        <f>B26+1</f>
-        <v>18</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" ht="13.6" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="50">
-        <f>B27+1</f>
-        <v>19</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" ht="13.6" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="50">
-        <f>B28+1</f>
-        <v>20</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" ht="13.6" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="50">
-        <f>B29+1</f>
-        <v>21</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" ht="13.6" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" ht="13.6" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" t="s" s="79">
-        <v>101</v>
-      </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5516,9 +5497,9 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;10&amp;K0000FF INTERNAL USE&amp;1#</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolae.andries\IdeaProjects\VVSS\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei 0920\OneDrive\Desktop\VVSS\Proiect\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CC4B76-21DF-4096-804D-50A5EF88D50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6935316E-CDF7-444C-A4CD-5A3C5C6FFDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="5640" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1825,8 +1824,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="74">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1836,13 +1835,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1861,71 +1860,67 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3200,11 +3195,11 @@
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3376,467 +3371,467 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="28" style="19" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="19" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="21" style="19" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="19"/>
+    <col min="1" max="1" width="8.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="34">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="34">
         <v>3</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="34">
         <f t="shared" ref="B13:B25" si="0">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="44" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3860,484 +3855,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="46.453125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="56" style="46" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" style="46" customWidth="1"/>
-    <col min="10" max="11" width="8.81640625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="46"/>
+    <col min="1" max="1" width="8.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="56" style="4" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="65">
         <v>44991</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="35">
+      <c r="F9" s="27"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="55.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="34">
         <f t="shared" ref="B11:B26" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="44" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4361,539 +4358,539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="18" style="50" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="50" customWidth="1"/>
-    <col min="6" max="8" width="8.81640625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="26.6328125" style="50" customWidth="1"/>
-    <col min="10" max="11" width="8.81640625" style="50" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="50"/>
+    <col min="1" max="1" width="8.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="51" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="34">
         <v>2</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="34">
         <v>3</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="35">
-        <f t="shared" ref="B11:B30" si="0">B13+1</f>
+      <c r="A14" s="22"/>
+      <c r="B14" s="34">
+        <f t="shared" ref="B14:B30" si="0">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="44" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4917,575 +4914,575 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="44.1796875" style="52" customWidth="1"/>
-    <col min="5" max="5" width="59.81640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="59.6328125" style="52" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="26.6328125" style="52" customWidth="1"/>
-    <col min="10" max="11" width="8.81640625" style="52" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="52"/>
+    <col min="1" max="1" width="1.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="59.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="59.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="51" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="307" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="34">
         <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="76" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
